--- a/scrapy/static/data/raymonds+thane+Ad+Advertiser.xlsx
+++ b/scrapy/static/data/raymonds+thane+Ad+Advertiser.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -454,14 +454,10 @@
       <c r="A2" t="inlineStr">
         <is>
           <t>Sponsored
-Flats by Raymond in Thane West | Book 2&amp;3 BHK &amp; Win an Int Trip
+Launching 2 BHK in Thane West | Homes in Pokhran Rd by...
 raymondtenxera.com
 https://www.raymondtenxera.com › official-site › brand
-Prime Connectivity: School - 5 Mins | Metro - 3 Mins | Hospital - 2 Mins | Mall - 2 Mins. New Launch Homes by Raymond with 38 Habitable Floors, 26500 SqFt Clubhouse, 40...
-Configuration
-2 BHK Crest 3 BHK Elite
-Overview
-Located next to Viviana Mall To constantly push the boundaries</t>
+New Launch Homes by Raymond with 38 Habitable Floors, 26500 SqFt Clubhouse, 40+ Amenities. Experience a futuristic lifestyle with Raymond Realty's Spacious 2 BHK homes...</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -479,15 +475,16 @@
       <c r="A3" t="inlineStr">
         <is>
           <t>Sponsored
-Buy 3 &amp; 4 BHK Apartments | Luxurious 3 bhk Apartments
-raymondnewprojects.com
-https://www.raymondnewprojects.com › new_launch › visit_now
-3 acre gated development — Premium 2/3/4 BHK at Excellent Location of Thane West...</t>
+Visit Address By GS Thane | Consult an expert &amp; visit site
+raymonds-addressbygs.com
+https://www.raymonds-addressbygs.com
+Bookings Open Addres By GS Thane 6.1 Acre, 2/3/4 Bhk 1.30 Cr Ask Expert &amp; Visit Site. Booking Open For Limited...
+Price ₹ / BHK/ Area · View Pricing · Site &amp; Layout Plan · Location Advantage</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Firstdoor Realty LLP</t>
+          <t>Home Bazaar Services Pvt Ltd</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -500,15 +497,15 @@
       <c r="A4" t="inlineStr">
         <is>
           <t>Sponsored
-La Vie at Uptown Urbania | 2&amp;3 BHK at ₹1.49 Cr (All Incl)
-Rustomjee La-Vie
-https://www.rustomjee-lavie.com
-Book 2 &amp; 3 BHK homes from ₹1.49 Cr (All Incl) at Rustomjee La Vie, Thane (W) 2&amp;3BHK...</t>
+Download Brochure | Launching Final Tower Asteria
+luxeoffplans.com
+https://www.luxeoffplans.com
+Spacious 2, 3 &amp; 4 BHK Homes at Thane. Sample Flat Ready. Download Brochure. Explore...</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Kapstone Construction Pvt Ltd</t>
+          <t>RABS NET SOLUTIONS PVT LTD</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -519,66 +516,151 @@
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
+        <is>
+          <t>Sponsored
+OC Received RTMI Homes @0 GST* - Grand Clubhouse...
+tenxhabitatraymondrealty.com
+https://www.tenxhabitatraymondrealty.com › official_site › book_now
+4,200 Sq.Ft. Multipurpose Hall | 28 Seater Mini Theatre | 2,400 Sq.Ft. Fully Equipped Gym</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Raymond Limited</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>India</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
         <is>
           <t>Sponsored
 TenX Habitat Thane Launch | 2, 3 &amp; 4 BHK Starts @ 1.41Cr*
 homesfy-property.co.in
 https://www.homesfy-property.co.in › tenx › thane
-326,500 sq ft clubhouse | 2 and 3 BHK residences near Viviana Mall @ 1.41 CR*</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
+326,500 sq ft clubhouse | 2 and 3 BHK residences near Viviana Mall @ 1.41 CR* Launching Tenx Habitat at Thane. Lavish 2, 3 &amp; 4 BHK Starting At 1.41Cr*.
+Price Plan · Our Price · Browse Prices · Floor Plans · View Gallery · Our Gallery</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
         <is>
           <t>Homesfy Realty Limited</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>India</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>Sponsored
-Visit Address By GS Thane | Consult an expert &amp; visit site
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>India</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Sponsored
+RTMI Flats with Zero GST* - Grand Clubhouse @Raymond TenX
+tenxhabitatraymondrealty.com
+https://www.tenxhabitatraymondrealty.com › official_site › book_now
+4,200 Sq.Ft. Multipurpose Hall | 28 Seater Mini Theatre | 2,400 Sq.Ft. Fully Equipped Gym
+Real Estate Builders &amp; Construction Company · Thane · Open ⋅ Closes 6 pm
+Call us</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Raymond Limited</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>India</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Sponsored
+Visit Address Tower Thane - Consult an expert &amp; visit site
 raymonds-addressbygs.com
 https://www.raymonds-addressbygs.com
-Bookings Open Addres By GS Thane 6.1 Acre, 2/3/4 Bhk 1.30 Cr Ask Expert &amp; Visit Site. Booking Open For Limited Time Only, Sign Up &amp; Get Instant Call Back Now. Early Buy Discount. Booking Open Limited Time.
-Price ₹ / BHK/ Area · View Pricing · Site &amp; Layout Plan · View The Gallery · Grand Amenities
-2 Bhk - 615 Sq. Ft. - ₹1.61 - Price In Cr
- · 
-More</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
+Bookings Open Addres Tower Thane 6.1 Acre, 2/3/4 Bhk 1.30 Cr Ask Expert &amp; Visit Site</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
         <is>
           <t>Home Bazaar Services Pvt Ltd</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>India</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>Sponsored
-Launching Final Tower Asteria
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>India</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Sponsored
+Launching Final Tower Asteria | 2, 3 &amp; 4 BHK Apartments
 luxeoffplans.com
 https://www.luxeoffplans.com
-Download Brochure — Spacious 2, 3 &amp; 4 BHK Homes at Thane. Sample Flat Ready. Download Brochure. Explore Project Details, Speak To Site Expert, Know More.</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
+Spacious 2, 3 &amp; 4 BHK Homes at Thane. Sample Flat Ready. Download Brochure. Explore...</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
         <is>
           <t>RABS NET SOLUTIONS PVT LTD</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>India</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Sponsored
+Dynamix Group - Avanya - Dynamix Group Dahisar Project
+dynamixavanya.co.in
+https://www.dynamixavanya.co.in › dahisar › avanya
+Explore Avanya by Dynamix, top builders in Mumbai. Luxury living awaits. Learn more today.</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>ANILINE PROPERTIES PRIVATE LIMITED</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>India</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Sponsored
+2 Bed Houses by Raymond Realty | Pay 20% &amp; Nothing till Jan'25
+raymondtenxera.com
+https://www.raymondtenxera.com › official-site › brand
+Experience a futuristic lifestyle with Raymond Realty's Spacious 2 BHK homes in Thane West. New Launch Homes by Raymond with...
+Location Map · Location Advantages · Contact Us · Get In Touch · Configuration · Overview
+Call us</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Raymond Limited</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
         <is>
           <t>India</t>
         </is>

--- a/scrapy/static/data/raymonds+thane+Ad+Advertiser.xlsx
+++ b/scrapy/static/data/raymonds+thane+Ad+Advertiser.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C11"/>
+  <dimension ref="A1:C15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -454,58 +454,58 @@
       <c r="A2" t="inlineStr">
         <is>
           <t>Sponsored
-Launching 2 BHK in Thane West | Homes in Pokhran Rd by...
+The Address By GS Thane - 3, 4 &amp; 4.5 BHK ₹2.59Cr*
+theaddressbygs-thane.in
+https://www.theaddressbygs-thane.in
+Launching The Address by GS at Pokhran Road Thane. Price Starts at ₹2.59 Cr*. Book Now.</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Prop Solutions4u</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>India</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Sponsored
+Launching 2 BHK in Thane West - Homes in Pokhran Rd by...
 raymondtenxera.com
 https://www.raymondtenxera.com › official-site › brand
-New Launch Homes by Raymond with 38 Habitable Floors, 26500 SqFt Clubhouse, 40+ Amenities. Experience a futuristic lifestyle with Raymond Realty's Spacious 2 BHK homes...</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
+New Launch Homes by Raymond with 38 Habitable Floors, 26500 SqFt Clubhouse, 40+ Amenities</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
         <is>
           <t>Raymond Limited</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>India</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>India</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
         <is>
           <t>Sponsored
 Visit Address By GS Thane | Consult an expert &amp; visit site
 raymonds-addressbygs.com
 https://www.raymonds-addressbygs.com
-Bookings Open Addres By GS Thane 6.1 Acre, 2/3/4 Bhk 1.30 Cr Ask Expert &amp; Visit Site. Booking Open For Limited...
-Price ₹ / BHK/ Area · View Pricing · Site &amp; Layout Plan · Location Advantage</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
+Bookings Open Addres By GS Thane 6.1 Acre, 2/3/4 Bhk 1.30 Cr Ask Expert &amp; Visit Site
+Price ₹ / BHK/ Area · View The Gallery · View Pricing · Site &amp; Layout Plan · Grand Amenities</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
         <is>
           <t>Home Bazaar Services Pvt Ltd</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>India</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>Sponsored
-Download Brochure | Launching Final Tower Asteria
-luxeoffplans.com
-https://www.luxeoffplans.com
-Spacious 2, 3 &amp; 4 BHK Homes at Thane. Sample Flat Ready. Download Brochure. Explore...</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>RABS NET SOLUTIONS PVT LTD</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -518,149 +518,238 @@
       <c r="A5" t="inlineStr">
         <is>
           <t>Sponsored
-OC Received RTMI Homes @0 GST* - Grand Clubhouse...
+TenX Habitat Thane Launch | 2/3/4 BHK Price At ₹1.41 Cr.*
+homesfy-property.co.in
+https://www.homesfy-property.co.in › tenx › thane
+326,500 sq ft clubhouse | 2 and 3 BHK residences near Viviana Mall @ 1.41 CR*
+Photo Gallery · View Gallery · Find Location · Our Gallery · Floor Plan · Floor Plans · Price Plan · Search Location · Browse Prices · View Amenities</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Homesfy Realty Limited</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>India</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Sponsored
+RTMI Flats with Zero GST* | Grand Clubhouse @Raymond TenX
 tenxhabitatraymondrealty.com
 https://www.tenxhabitatraymondrealty.com › official_site › book_now
-4,200 Sq.Ft. Multipurpose Hall | 28 Seater Mini Theatre | 2,400 Sq.Ft. Fully Equipped Gym</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
+4,200 Sq.Ft. Multipurpose Hall | 28 Seater Mini Theatre | 2,400 Sq.Ft. Fully Equipped Gym. Book your 2 BHK Flat in Thane and get 50...
+Real Estate Builders &amp; Construction Company · Thane · Closes soon ⋅ 6 pm
+View Gallery · Floor Plan · Floorplans Section · Configurations Section · Location · Amenities</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
         <is>
           <t>Raymond Limited</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>India</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>Sponsored
-TenX Habitat Thane Launch | 2, 3 &amp; 4 BHK Starts @ 1.41Cr*
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>India</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Sponsored
+Premium 2 BHK @₹96 Lakhs | Pay Only ₹54000 to Book Now
+propertymumbai.co.in
+https://www.propertymumbai.co.in › kolshet_thane
+50+ world-class Amenities Large Swimming Pool &amp; Grand Clubhouse. Excellent Connectivity. 10 Mins From Thane Railway Station, G+22 Towers At Thane's best connected location. Download Brochure.
+Floor Plan · Payment Plan · Location · Amenities</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>NORA GROUP</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>India</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Sponsored
+Download Brochure | Price Starts ₹ 1.30 Cr*
+ixapl.in
+https://www.ixapl.in › raymond › raymond_realty
+Raymond Realty, Thane West Offers 1, 2, 3 &amp; 4 BHK Starts ₹1.30 Cr Onwards*. Enquire Now. Book Site Visit, Get Best Price &amp; Offers, Download Floor Plan &amp; Brochures Immediately Now. Kids Play Area. Exciting Payment Plan.</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>INVESTOXPERT ADVISORS PRIVATE LIMITED</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>India</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Sponsored
+Launching The Address By GS - 3, 4, 4.5 BHK Price ₹2.59Cr*
+theaddressbygs-thane.in
+https://www.theaddressbygs-thane.in
+Launching The Address by GS at Pokhran Road Thane. Price Starts at ₹2.59 Cr*. Book Now. 2 High Rise Towers. 3-Acres Gated Development.</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Prop Solutions4u</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>India</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Sponsored
+Visit Address By GS Thane - Consult an expert &amp; visit site
+raymonds-addressbygs.com
+https://www.raymonds-addressbygs.com
+Bookings Open Addres By GS Thane 6.1 Acre, 2/3/4 Bhk 1.30 Cr Ask Expert &amp; Visit Site
+2 Bhk - 615 Sq. Ft. - ₹1.61 - Price In Cr
+ · 
+More</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Home Bazaar Services Pvt Ltd</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>India</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Sponsored
+OC Received RTMI Flats @0 GST* | Grand Clubhouse...
+tenxhabitatraymondrealty.com
+https://www.tenxhabitatraymondrealty.com › official_site › book_now
+4,200 Sq.Ft. Multipurpose Hall | 28 Seater Mini Theatre | 2,400 Sq.Ft. Fully Equipped Gym. Book your 2 BHK Flat in Thane and get 50+ World-Class Amenities &amp; 270° Panoramic City...</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Raymond Limited</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>India</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Sponsored
+TenX Habitat Thane Launch | Zero Stamp Duty Offer
 homesfy-property.co.in
 https://www.homesfy-property.co.in › tenx › thane
-326,500 sq ft clubhouse | 2 and 3 BHK residences near Viviana Mall @ 1.41 CR* Launching Tenx Habitat at Thane. Lavish 2, 3 &amp; 4 BHK Starting At 1.41Cr*.
-Price Plan · Our Price · Browse Prices · Floor Plans · View Gallery · Our Gallery</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
+326,500 sq ft clubhouse | 2 and 3 BHK residences near Viviana Mall @ 1.41 CR*
+Photo Gallery · View Gallery · Find Location · Our Gallery · Search Location · Floor Plan · Floor Plans · Price Plan · Browse Prices · View Amenities</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
         <is>
           <t>Homesfy Realty Limited</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>India</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>Sponsored
-RTMI Flats with Zero GST* - Grand Clubhouse @Raymond TenX
-tenxhabitatraymondrealty.com
-https://www.tenxhabitatraymondrealty.com › official_site › book_now
-4,200 Sq.Ft. Multipurpose Hall | 28 Seater Mini Theatre | 2,400 Sq.Ft. Fully Equipped Gym
-Real Estate Builders &amp; Construction Company · Thane · Open ⋅ Closes 6 pm
-Call us</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>Raymond Limited</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>India</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>Sponsored
-Visit Address Tower Thane - Consult an expert &amp; visit site
-raymonds-addressbygs.com
-https://www.raymonds-addressbygs.com
-Bookings Open Addres Tower Thane 6.1 Acre, 2/3/4 Bhk 1.30 Cr Ask Expert &amp; Visit Site</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>Home Bazaar Services Pvt Ltd</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>India</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>Sponsored
-Launching Final Tower Asteria | 2, 3 &amp; 4 BHK Apartments
-luxeoffplans.com
-https://www.luxeoffplans.com
-Spacious 2, 3 &amp; 4 BHK Homes at Thane. Sample Flat Ready. Download Brochure. Explore...</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>RABS NET SOLUTIONS PVT LTD</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>India</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>Sponsored
-Dynamix Group - Avanya - Dynamix Group Dahisar Project
-dynamixavanya.co.in
-https://www.dynamixavanya.co.in › dahisar › avanya
-Explore Avanya by Dynamix, top builders in Mumbai. Luxury living awaits. Learn more today.</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>ANILINE PROPERTIES PRIVATE LIMITED</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>India</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Sponsored
-2 Bed Houses by Raymond Realty | Pay 20% &amp; Nothing till Jan'25
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>India</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>Sponsored
+2 Bed Homes by Raymond Realty | Book 2&amp;3 BHK &amp; Win an Int...
 raymondtenxera.com
 https://www.raymondtenxera.com › official-site › brand
-Experience a futuristic lifestyle with Raymond Realty's Spacious 2 BHK homes in Thane West. New Launch Homes by Raymond with...
-Location Map · Location Advantages · Contact Us · Get In Touch · Configuration · Overview
-Call us</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr">
+Prime Connectivity: School - 5 Mins | Metro - 3 Mins | Hospital - 2 Mins | Mall - 2 Mins. New Launch Homes by Raymond with 38 Habitable Floors, 26500 SqFt Clubhouse, 40+ Amenities. 38 Storey Three towers.
+Location Advantages · Location Map · View Amenities · Configuration · Overview · About Us</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
         <is>
           <t>Raymond Limited</t>
         </is>
       </c>
-      <c r="C11" t="inlineStr">
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>India</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Sponsored
+Ten X Habitat Thane | Ten X Habitat Mumbai
+ixapl.in
+https://www.ixapl.in › raymond › raymond_realty
+Raymond Realty, Thane West Offers 1, 2, 3 &amp; 4 BHK Starts ₹1.30 Cr Onwards*. Enquire Now. Book Site Visit, Get Best Price &amp; Offers, Download Floor Plan &amp; Brochures Immediately Now. Exciting Payment Plan.</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>INVESTOXPERT ADVISORS PRIVATE LIMITED</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>India</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>Sponsored
+Pay Only ₹54000 to Book Now | 15 Mins From Viviana Mall
+propertymumbai.co.in
+https://www.propertymumbai.co.in › kolshet_thane
+50+ world-class Amenities Large Swimming Pool &amp; Grand Clubhouse. Excellent Connectivity. 10 Mins From Thane Railway...
+Floor Plan · Payment Plan · Location · Amenities</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>NORA GROUP</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
         <is>
           <t>India</t>
         </is>

--- a/scrapy/static/data/raymonds+thane+Ad+Advertiser.xlsx
+++ b/scrapy/static/data/raymonds+thane+Ad+Advertiser.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C15"/>
+  <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -454,15 +454,15 @@
       <c r="A2" t="inlineStr">
         <is>
           <t>Sponsored
-The Address By GS Thane - 3, 4 &amp; 4.5 BHK ₹2.59Cr*
-theaddressbygs-thane.in
-https://www.theaddressbygs-thane.in
-Launching The Address by GS at Pokhran Road Thane. Price Starts at ₹2.59 Cr*. Book Now.</t>
+Visit Address By GS Thane - Consult an expert &amp; visit site
+raymonds-addressbygs.com
+https://www.raymonds-addressbygs.com
+Bookings Open Addres By GS Thane 6.1 Acre, 2/3/4 Bhk 1.30 Cr Ask Expert &amp; Visit Site</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Prop Solutions4u</t>
+          <t>Home Bazaar Services Pvt Ltd</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -475,15 +475,16 @@
       <c r="A3" t="inlineStr">
         <is>
           <t>Sponsored
-Launching 2 BHK in Thane West - Homes in Pokhran Rd by...
-raymondtenxera.com
-https://www.raymondtenxera.com › official-site › brand
-New Launch Homes by Raymond with 38 Habitable Floors, 26500 SqFt Clubhouse, 40+ Amenities</t>
+The Address By GS Thane | 3, 4, 4.5 BHK Price ₹2.59Cr*
+theaddressbygs-thane.in
+https://www.theaddressbygs-thane.in
+Launching The Address by GS at Pokhran Road Thane. Price Starts at ₹2.59 Cr*. Book Now.
+Floor Plan &amp; Pricing · Location · Project Highlights · Amenities Offered</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Raymond Limited</t>
+          <t>Prop Solutions4u</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -496,16 +497,16 @@
       <c r="A4" t="inlineStr">
         <is>
           <t>Sponsored
-Visit Address By GS Thane | Consult an expert &amp; visit site
-raymonds-addressbygs.com
-https://www.raymonds-addressbygs.com
-Bookings Open Addres By GS Thane 6.1 Acre, 2/3/4 Bhk 1.30 Cr Ask Expert &amp; Visit Site
-Price ₹ / BHK/ Area · View The Gallery · View Pricing · Site &amp; Layout Plan · Grand Amenities</t>
+New Raymond Tower in Thane | Presenting Homes in Thane west
+raymondtenxera.com
+https://www.raymondtenxera.com › official-site › brand
+Prime Connectivity: School - 5 Mins | Metro - 3 Mins | Hospital - 2 Mins | Mall - 2 Mins. New...
+Location Map · Configuration · Overview · Location Advantages · Contact Us · About Us</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Home Bazaar Services Pvt Ltd</t>
+          <t>Raymond Limited</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -518,11 +519,10 @@
       <c r="A5" t="inlineStr">
         <is>
           <t>Sponsored
-TenX Habitat Thane Launch | 2/3/4 BHK Price At ₹1.41 Cr.*
+TenX Habitat Thane Launch | 2, 3 &amp; 4 BHK Starts @ 1.41Cr*
 homesfy-property.co.in
 https://www.homesfy-property.co.in › tenx › thane
-326,500 sq ft clubhouse | 2 and 3 BHK residences near Viviana Mall @ 1.41 CR*
-Photo Gallery · View Gallery · Find Location · Our Gallery · Floor Plan · Floor Plans · Price Plan · Search Location · Browse Prices · View Amenities</t>
+326,500 sq ft clubhouse | 2 and 3 BHK residences near Viviana Mall @ 1.41 CR*</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -540,12 +540,12 @@
       <c r="A6" t="inlineStr">
         <is>
           <t>Sponsored
-RTMI Flats with Zero GST* | Grand Clubhouse @Raymond TenX
+RTMI Flats with Zero GST* | TenX Habitat by Raymond Realty
 tenxhabitatraymondrealty.com
-https://www.tenxhabitatraymondrealty.com › official_site › book_now
+https://www.tenxhabitatraymondrealty.com
 4,200 Sq.Ft. Multipurpose Hall | 28 Seater Mini Theatre | 2,400 Sq.Ft. Fully Equipped Gym. Book your 2 BHK Flat in Thane and get 50...
-Real Estate Builders &amp; Construction Company · Thane · Closes soon ⋅ 6 pm
-View Gallery · Floor Plan · Floorplans Section · Configurations Section · Location · Amenities</t>
+Real Estate Builders &amp; Construction Company · Thane · Open ⋅ Closes 6 pm
+Floor Plan · Floorplans Section · Location · Configurations Section · View Gallery · Amenities</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -554,202 +554,6 @@
         </is>
       </c>
       <c r="C6" t="inlineStr">
-        <is>
-          <t>India</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>Sponsored
-Premium 2 BHK @₹96 Lakhs | Pay Only ₹54000 to Book Now
-propertymumbai.co.in
-https://www.propertymumbai.co.in › kolshet_thane
-50+ world-class Amenities Large Swimming Pool &amp; Grand Clubhouse. Excellent Connectivity. 10 Mins From Thane Railway Station, G+22 Towers At Thane's best connected location. Download Brochure.
-Floor Plan · Payment Plan · Location · Amenities</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>NORA GROUP</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>India</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>Sponsored
-Download Brochure | Price Starts ₹ 1.30 Cr*
-ixapl.in
-https://www.ixapl.in › raymond › raymond_realty
-Raymond Realty, Thane West Offers 1, 2, 3 &amp; 4 BHK Starts ₹1.30 Cr Onwards*. Enquire Now. Book Site Visit, Get Best Price &amp; Offers, Download Floor Plan &amp; Brochures Immediately Now. Kids Play Area. Exciting Payment Plan.</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>INVESTOXPERT ADVISORS PRIVATE LIMITED</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>India</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>Sponsored
-Launching The Address By GS - 3, 4, 4.5 BHK Price ₹2.59Cr*
-theaddressbygs-thane.in
-https://www.theaddressbygs-thane.in
-Launching The Address by GS at Pokhran Road Thane. Price Starts at ₹2.59 Cr*. Book Now. 2 High Rise Towers. 3-Acres Gated Development.</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>Prop Solutions4u</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>India</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>Sponsored
-Visit Address By GS Thane - Consult an expert &amp; visit site
-raymonds-addressbygs.com
-https://www.raymonds-addressbygs.com
-Bookings Open Addres By GS Thane 6.1 Acre, 2/3/4 Bhk 1.30 Cr Ask Expert &amp; Visit Site
-2 Bhk - 615 Sq. Ft. - ₹1.61 - Price In Cr
- · 
-More</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>Home Bazaar Services Pvt Ltd</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>India</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Sponsored
-OC Received RTMI Flats @0 GST* | Grand Clubhouse...
-tenxhabitatraymondrealty.com
-https://www.tenxhabitatraymondrealty.com › official_site › book_now
-4,200 Sq.Ft. Multipurpose Hall | 28 Seater Mini Theatre | 2,400 Sq.Ft. Fully Equipped Gym. Book your 2 BHK Flat in Thane and get 50+ World-Class Amenities &amp; 270° Panoramic City...</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>Raymond Limited</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>India</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>Sponsored
-TenX Habitat Thane Launch | Zero Stamp Duty Offer
-homesfy-property.co.in
-https://www.homesfy-property.co.in › tenx › thane
-326,500 sq ft clubhouse | 2 and 3 BHK residences near Viviana Mall @ 1.41 CR*
-Photo Gallery · View Gallery · Find Location · Our Gallery · Search Location · Floor Plan · Floor Plans · Price Plan · Browse Prices · View Amenities</t>
-        </is>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>Homesfy Realty Limited</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>India</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>Sponsored
-2 Bed Homes by Raymond Realty | Book 2&amp;3 BHK &amp; Win an Int...
-raymondtenxera.com
-https://www.raymondtenxera.com › official-site › brand
-Prime Connectivity: School - 5 Mins | Metro - 3 Mins | Hospital - 2 Mins | Mall - 2 Mins. New Launch Homes by Raymond with 38 Habitable Floors, 26500 SqFt Clubhouse, 40+ Amenities. 38 Storey Three towers.
-Location Advantages · Location Map · View Amenities · Configuration · Overview · About Us</t>
-        </is>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>Raymond Limited</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>India</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>Sponsored
-Ten X Habitat Thane | Ten X Habitat Mumbai
-ixapl.in
-https://www.ixapl.in › raymond › raymond_realty
-Raymond Realty, Thane West Offers 1, 2, 3 &amp; 4 BHK Starts ₹1.30 Cr Onwards*. Enquire Now. Book Site Visit, Get Best Price &amp; Offers, Download Floor Plan &amp; Brochures Immediately Now. Exciting Payment Plan.</t>
-        </is>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>INVESTOXPERT ADVISORS PRIVATE LIMITED</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>India</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>Sponsored
-Pay Only ₹54000 to Book Now | 15 Mins From Viviana Mall
-propertymumbai.co.in
-https://www.propertymumbai.co.in › kolshet_thane
-50+ world-class Amenities Large Swimming Pool &amp; Grand Clubhouse. Excellent Connectivity. 10 Mins From Thane Railway...
-Floor Plan · Payment Plan · Location · Amenities</t>
-        </is>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>NORA GROUP</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
         <is>
           <t>India</t>
         </is>
